--- a/input.xlsx
+++ b/input.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>model</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>ResUNet</t>
@@ -37,7 +40,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -50,7 +53,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -73,35 +76,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -405,13 +396,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -419,9 +410,14 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>model</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>ResUNet</t>
+    <t>ACM</t>
   </si>
 </sst>
 </file>
@@ -53,7 +50,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -76,19 +73,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -396,28 +397,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,32 +1,64 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\27227\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9227E724-36D6-48BD-B197-E25BE2679EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="input"/>
+    <sheet name="input" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>model</t>
   </si>
   <si>
+    <t>ResUNet</t>
+  </si>
+  <si>
     <t>ACM</t>
+  </si>
+  <si>
+    <t>ALCNet</t>
+  </si>
+  <si>
+    <t>AGPCNet</t>
+  </si>
+  <si>
+    <t>ISTDU-Net</t>
+  </si>
+  <si>
+    <t>RDIAN</t>
+  </si>
+  <si>
+    <t>ISTDU_Net</t>
+  </si>
+  <si>
+    <t>res_UNet</t>
+  </si>
+  <si>
+    <t>DNANet</t>
+  </si>
+  <si>
+    <t>UIUNet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -50,7 +82,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -73,37 +105,30 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -114,10 +139,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -155,71 +180,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -247,7 +272,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -270,11 +295,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -283,13 +308,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -299,7 +324,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -308,7 +333,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -317,7 +342,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -325,10 +350,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -393,27 +418,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,82 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\27227\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9227E724-36D6-48BD-B197-E25BE2679EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="input" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="input" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>ResUNet</t>
-  </si>
-  <si>
-    <t>ACM</t>
-  </si>
-  <si>
-    <t>ALCNet</t>
-  </si>
-  <si>
-    <t>AGPCNet</t>
-  </si>
-  <si>
-    <t>ISTDU-Net</t>
-  </si>
-  <si>
-    <t>RDIAN</t>
-  </si>
-  <si>
-    <t>ISTDU_Net</t>
-  </si>
-  <si>
-    <t>res_UNet</t>
-  </si>
-  <si>
-    <t>DNANet</t>
-  </si>
-  <si>
-    <t>UIUNet</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -91,46 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -209,7 +211,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -244,7 +245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -268,6 +268,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
@@ -278,31 +279,31 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -324,7 +325,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -382,7 +383,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -395,12 +396,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -418,77 +420,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>RDIAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ISTDU_Net</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>res_UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DNANet</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>UIUNet</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -1,37 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="input" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="input"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>SDecNet</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +59,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="4">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -141,10 +107,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -182,69 +148,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -268,54 +236,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -325,7 +292,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -334,7 +301,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -343,7 +310,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -351,10 +318,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -383,7 +350,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -396,13 +363,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -420,62 +386,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>model</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>RDIAN</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ISTDU_Net</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>res_UNet</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>DNANet</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>UIUNet</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -19,7 +19,7 @@
     <t>model</t>
   </si>
   <si>
-    <t>SDecNet</t>
+    <t>DATransNet</t>
   </si>
 </sst>
 </file>
@@ -50,12 +50,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -82,8 +97,8 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -399,12 +414,12 @@
     <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>

--- a/input.xlsx
+++ b/input.xlsx
@@ -19,7 +19,7 @@
     <t>model</t>
   </si>
   <si>
-    <t>DATransNet</t>
+    <t>DTUM_res_UNet</t>
   </si>
 </sst>
 </file>

--- a/input.xlsx
+++ b/input.xlsx
@@ -19,7 +19,7 @@
     <t>model</t>
   </si>
   <si>
-    <t>DTUM_res_UNet</t>
+    <t>RFR_res_UNet</t>
   </si>
 </sst>
 </file>
@@ -50,27 +50,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -97,8 +82,8 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -414,12 +399,12 @@
     <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,45 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
-  <workbookPr/>
-  <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
-  </bookViews>
+  <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="input"/>
+    <sheet name="input" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>RFR_res_UNet</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -50,7 +52,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -58,47 +60,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -107,10 +80,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -148,71 +121,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -236,53 +209,50 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -292,7 +262,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -301,7 +271,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -310,7 +280,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -318,10 +288,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -350,7 +320,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -363,12 +333,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -380,36 +351,70 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-  </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>model</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>DTUM_SDecNet</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:A2"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,9 +412,19 @@
         <v>DTUM_SDecNet</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>RFR_SDecNet</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -409,22 +409,12 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>DTUM_SDecNet</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>RFR_SDecNet</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v/>
+        <v>RFR_res_UNet</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -409,7 +409,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>RFR_res_UNet</v>
+        <v>DTUM_res_UNet</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -409,12 +409,22 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>RFR_res_UNet</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
         <v>DTUM_res_UNet</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>res_UNet</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -422,9 +422,14 @@
         <v>res_UNet</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>SDecNet</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -409,17 +409,17 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>RFR_res_UNet</v>
+        <v>res_UNet</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>DTUM_res_UNet</v>
+        <v>RFR_res_UNet</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>res_UNet</v>
+        <v>DTUM_res_UNet</v>
       </c>
     </row>
     <row r="5">
@@ -427,9 +427,19 @@
         <v>SDecNet</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>ISTDU_Net</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>DATransNet</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -1,58 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="input" sheetId="1" r:id="rId1"/>
+    <sheet name="input" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -60,18 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -150,7 +211,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -185,7 +245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -220,16 +279,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -351,95 +414,68 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
-        <v>model</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>res_UNet</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>RFR_res_UNet</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>RFR_res_UNet</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DTUM_res_UNet</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <v>DTUM_res_UNet</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SDecNet</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
-        <v>SDecNet</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ISTDU_Net</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
-        <v>ISTDU_Net</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>DATransNet</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DATransNet</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A7"/>
-  </ignoredErrors>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,33 +443,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RFR_res_UNet</t>
+          <t>ISTDU_Net</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
-        <is>
-          <t>DTUM_res_UNet</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>SDecNet</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ISTDU_Net</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
         <is>
           <t>DATransNet</t>
         </is>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,43 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="input" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="input" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,94 +60,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -211,6 +150,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -245,6 +185,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -279,20 +220,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -414,47 +351,95 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>model</t>
-        </is>
+      <c r="A1" t="str">
+        <v>model</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ISTDU_Net</t>
-        </is>
+      <c r="A2" t="str">
+        <v>DTUM_res_UNet</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DATransNet</t>
-        </is>
+      <c r="A3" t="str">
+        <v>RFR_res_UNet</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>DTUM_DATrasnNet</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>RFR_DATrasnNet</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>RFR_ISTDU_Net</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>DTUM_ISTDU_Net</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:A7"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -409,37 +409,22 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>DTUM_res_UNet</v>
+        <v>RFR_DATransNet</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>RFR_res_UNet</v>
+        <v>RFR_ISTDU_Net</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>DTUM_DATrasnNet</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>RFR_DATrasnNet</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>RFR_ISTDU_Net</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
         <v>DTUM_ISTDU_Net</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -409,17 +409,17 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>RFR_DATransNet</v>
+        <v>SDecNet</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>RFR_ISTDU_Net</v>
+        <v>RFR_SDecNet</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>DTUM_ISTDU_Net</v>
+        <v>DTUM_SDecNet</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -409,22 +409,12 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>SDecNet</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>RFR_SDecNet</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>DTUM_SDecNet</v>
+        <v>STDecNet</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -1,58 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="input" sheetId="1" r:id="rId1"/>
+    <sheet name="input" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -60,18 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -150,7 +211,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -185,7 +245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -220,16 +279,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -351,70 +414,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
-        <v>model</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>STDecNet</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A2"/>
-  </ignoredErrors>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -1,43 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="input" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="input" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,94 +60,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -211,6 +150,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -245,6 +185,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -279,20 +220,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -414,33 +351,73 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>model</t>
-        </is>
+      <c r="A1" t="str">
+        <v>model</v>
+      </c>
+      <c r="B1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>res_UNet</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -1,58 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="input" sheetId="1" r:id="rId1"/>
+    <sheet name="input" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -60,18 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -150,7 +211,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -185,7 +245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -220,16 +279,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -351,73 +414,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
-        <v>model</v>
-      </c>
-      <c r="B1" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>res_UNet</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
-  </ignoredErrors>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -1,43 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="input" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="input" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,94 +60,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -211,6 +150,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -245,6 +185,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -279,20 +220,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -414,33 +351,70 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>model</t>
-        </is>
+      <c r="A1" t="str">
+        <v>model</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>STDecNet</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:A2"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -1,43 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet name="input" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="input"/>
   </sheets>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>res_UNet</t>
+  </si>
+  <si>
+    <t>ISTDU_Net</t>
+  </si>
+  <si>
+    <t>DATransNet</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -64,14 +62,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="3">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -80,10 +89,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -121,71 +130,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -209,50 +218,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -262,7 +274,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -271,7 +283,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -280,7 +292,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -288,10 +300,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -320,7 +332,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -333,13 +345,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -351,70 +362,46 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>model</v>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>STDecNet</v>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A2"/>
-  </ignoredErrors>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -14,18 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>model</t>
   </si>
   <si>
-    <t>res_UNet</t>
-  </si>
-  <si>
-    <t>ISTDU_Net</t>
-  </si>
-  <si>
-    <t>DATransNet</t>
+    <t>SDecNet</t>
   </si>
 </sst>
 </file>
@@ -372,7 +366,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -391,16 +385,6 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,44 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="input"/>
+    <sheet name="input" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>SDecNet</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -56,25 +46,81 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -83,10 +129,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -124,71 +170,69 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -212,53 +256,54 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -268,7 +313,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -277,7 +322,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -286,7 +331,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -294,10 +339,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -326,7 +371,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -339,12 +384,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -362,30 +408,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -1,34 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="input" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="input"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+  <si>
+    <t>dataset</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>IRDST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSHNet </t>
+  </si>
+  <si>
+    <t>DNANet</t>
+  </si>
+  <si>
+    <t>NUDT-MIRSDT</t>
+  </si>
+  <si>
+    <t>res_UNet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDecNet
+</t>
+  </si>
+  <si>
+    <t>ISTDU_Net</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,81 +78,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -129,10 +105,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -170,69 +146,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -256,54 +234,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -313,7 +290,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -322,7 +299,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -331,7 +308,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -339,10 +316,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -371,7 +348,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -384,13 +361,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -408,27 +384,85 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>model</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>dataset</t>
   </si>
@@ -25,13 +25,16 @@
     <t>IRDST</t>
   </si>
   <si>
+    <t>MSHNet</t>
+  </si>
+  <si>
+    <t>DNANet</t>
+  </si>
+  <si>
+    <t>NUDT-MIRSDT</t>
+  </si>
+  <si>
     <t xml:space="preserve">MSHNet </t>
-  </si>
-  <si>
-    <t>DNANet</t>
-  </si>
-  <si>
-    <t>NUDT-MIRSDT</t>
   </si>
   <si>
     <t>res_UNet</t>
@@ -427,7 +430,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
@@ -443,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
@@ -451,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
@@ -459,7 +462,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -22,16 +22,16 @@
     <t>model</t>
   </si>
   <si>
+    <t>NUDT-MIRSDT</t>
+  </si>
+  <si>
+    <t>MSHNet</t>
+  </si>
+  <si>
     <t>IRDST</t>
   </si>
   <si>
-    <t>MSHNet</t>
-  </si>
-  <si>
     <t>DNANet</t>
-  </si>
-  <si>
-    <t>NUDT-MIRSDT</t>
   </si>
   <si>
     <t xml:space="preserve">MSHNet </t>
@@ -419,15 +419,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -435,15 +435,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
       <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -451,7 +451,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -459,7 +459,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>

--- a/input.xlsx
+++ b/input.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>dataset</t>
   </si>
@@ -22,19 +22,16 @@
     <t>model</t>
   </si>
   <si>
+    <t>IRDST</t>
+  </si>
+  <si>
+    <t>MSHNet</t>
+  </si>
+  <si>
+    <t>DNANet</t>
+  </si>
+  <si>
     <t>NUDT-MIRSDT</t>
-  </si>
-  <si>
-    <t>MSHNet</t>
-  </si>
-  <si>
-    <t>IRDST</t>
-  </si>
-  <si>
-    <t>DNANet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSHNet </t>
   </si>
   <si>
     <t>res_UNet</t>
@@ -419,50 +416,50 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>dataset</t>
   </si>
@@ -25,13 +25,7 @@
     <t>IRDST</t>
   </si>
   <si>
-    <t>MSHNet</t>
-  </si>
-  <si>
     <t>DNANet</t>
-  </si>
-  <si>
-    <t>NUDT-MIRSDT</t>
   </si>
   <si>
     <t>res_UNet</t>
@@ -388,7 +382,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -424,42 +418,18 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>dataset</t>
   </si>
@@ -31,11 +31,13 @@
     <t>res_UNet</t>
   </si>
   <si>
-    <t xml:space="preserve">SDecNet
-</t>
-  </si>
-  <si>
-    <t>ISTDU_Net</t>
+    <t>ISTDU-Net</t>
+  </si>
+  <si>
+    <t>L2SKNet</t>
+  </si>
+  <si>
+    <t>MSHNet</t>
   </si>
 </sst>
 </file>
@@ -382,7 +384,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -432,6 +434,34 @@
         <v>6</v>
       </c>
     </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/input.xlsx
+++ b/input.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
   <si>
     <t>dataset</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>MSHNet</t>
+  </si>
+  <si>
+    <t>NUDT-MIRSDT</t>
   </si>
 </sst>
 </file>
@@ -443,24 +446,44 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,65 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="input"/>
+    <sheet name="input" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
-  <si>
-    <t>dataset</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>IRDST</t>
-  </si>
-  <si>
-    <t>DNANet</t>
-  </si>
-  <si>
-    <t>res_UNet</t>
-  </si>
-  <si>
-    <t>ISTDU-Net</t>
-  </si>
-  <si>
-    <t>L2SKNet</t>
-  </si>
-  <si>
-    <t>MSHNet</t>
-  </si>
-  <si>
-    <t>NUDT-MIRSDT</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -77,25 +46,81 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -104,10 +129,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -145,71 +170,69 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -233,53 +256,54 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -289,7 +313,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -298,7 +322,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -307,7 +331,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -315,10 +339,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -347,7 +371,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -360,12 +384,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -383,109 +408,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>dataset</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>NUDT-MIRSDT</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DNANet</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NUDT-MIRSDT</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>res_UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NUDT-MIRSDT</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ISTDU-Net</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NUDT-MIRSDT</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>L2SKNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NUDT-MIRSDT</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MSHNet</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,60 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NUDT-MIRSDT</t>
+          <t>IRDST</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DNANet</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>NUDT-MIRSDT</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>res_UNet</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>NUDT-MIRSDT</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ISTDU-Net</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>NUDT-MIRSDT</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>L2SKNet</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>NUDT-MIRSDT</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MSHNet</t>
+          <t>RFR+MSHNet</t>
         </is>
       </c>
     </row>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,34 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="input" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="input" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
   <fonts count="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +65,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -199,6 +150,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -233,6 +185,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -267,20 +220,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -402,50 +351,76 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>dataset</t>
-        </is>
+      <c r="A1" t="str">
+        <v>dataset</v>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>model</t>
-        </is>
+      <c r="B1" t="str">
+        <v>model</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>IRDST</t>
-        </is>
+      <c r="A2" t="str">
+        <v>IRDST</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>RFR+MSHNet</t>
-        </is>
+      <c r="B2" t="str">
+        <v>DQAligner</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,15 +412,23 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>NUDT-MIRSDT</v>
+      </c>
+      <c r="B2" t="str">
+        <v>DQAligner</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
         <v>IRDST</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B3" t="str">
         <v>DQAligner</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B3"/>
   </ignoredErrors>
 </worksheet>
 </file>